--- a/medicine/Psychotrope/Brasserie_de_Jandrain-Jandrenouille/Brasserie_de_Jandrain-Jandrenouille.xlsx
+++ b/medicine/Psychotrope/Brasserie_de_Jandrain-Jandrenouille/Brasserie_de_Jandrain-Jandrenouille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Brasserie de Jandrain-Jandrenouille est une brasserie belge située à Jandrain-Jandrenouille dans la province du Brabant wallon.
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie a été fondée en 2006 par Alexandre Dumont de Chassart et Stéphane Meulemans qui avaient étudié ensemble à l'Université catholique de Louvain. L'équipement de brassage de fabrication américaine (système Brew Nord) en acier inoxydable a été acheté à la brasserie française du Berry à Bourges et avait une capacité de fermentation de 30 hl. La brasserie est située dans une ferme hesbignonne du XVIIIe siècle. La première bière Saison IV a été lancée en juin 2007. En octobre 2007, la brasserie s'équipe d'une usine d'embouteillage et installe deux cuves de fermentation supplémentaires en août 2010.
 </t>
@@ -543,7 +557,9 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les bières originales de la brasserie sont reprises comme Belgian Beer of Wallonia, protection accordée par l'Agence wallonne pour la promotion d'une agriculture de qualité (APAQ-W).
 IV Saison, blonde, 6,5 %
